--- a/results/mp/deberta/corona/confidence/168/stop-words-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-0.2/avg_0.004_scores.xlsx
@@ -88,13 +88,13 @@
     <t>heroes</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
   </si>
   <si>
     <t>safety</t>
@@ -1024,25 +1024,25 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6796536796536796</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L16">
-        <v>157</v>
+        <v>66</v>
       </c>
       <c r="M16">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="N16">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="O16">
-        <v>0.05000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>74</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1050,25 +1050,25 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6666666666666666</v>
+        <v>0.6642857142857143</v>
       </c>
       <c r="L17">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="M17">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="N17">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="O17">
-        <v>0.09999999999999998</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1076,25 +1076,25 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.6642857142857143</v>
+        <v>0.6569037656903766</v>
       </c>
       <c r="L18">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="M18">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="N18">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>47</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1180,25 +1180,25 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.5670731707317073</v>
+        <v>0.5470588235294118</v>
       </c>
       <c r="L22">
         <v>186</v>
       </c>
       <c r="M22">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="N22">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="10:17">
